--- a/Documents/Dokumentation/Projektphasen Gantt-Diagramm Planung.xlsx
+++ b/Documents/Dokumentation/Projektphasen Gantt-Diagramm Planung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3285A03F-7312-406B-A2F2-76BE02D62118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D018871-D302-4664-98AC-424A42096B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Woche anzeigen:</t>
   </si>
   <si>
-    <t>Schulprojekt Lehrnprogramm</t>
-  </si>
-  <si>
     <t>Do-IT</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Vorbereitung</t>
+  </si>
+  <si>
+    <t>Schulprojekt Lernprogramm</t>
   </si>
 </sst>
 </file>
@@ -1520,6 +1520,18 @@
     <xf numFmtId="0" fontId="0" fillId="51" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1533,18 +1545,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2154,9 +2154,9 @@
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL55" sqref="BL55"/>
+      <selection pane="bottomLeft" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2177,13 +2177,13 @@
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
       <c r="H1" s="1"/>
       <c r="I1" s="9"/>
     </row>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="45"/>
     </row>
@@ -2201,119 +2201,119 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="129">
+      <c r="D3" s="127"/>
+      <c r="E3" s="124">
         <v>44382</v>
       </c>
-      <c r="F3" s="129"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="126">
+      <c r="I4" s="121">
         <f>I5</f>
         <v>44382</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="126">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="121">
         <f>P5</f>
         <v>44389</v>
       </c>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="126">
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="121">
         <f>W5</f>
         <v>44396</v>
       </c>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="126">
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="121">
         <f>AD5</f>
         <v>44403</v>
       </c>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="126">
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="121">
         <f>AK5</f>
         <v>44410</v>
       </c>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="127"/>
-      <c r="AQ4" s="128"/>
-      <c r="AR4" s="126">
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="121">
         <f>AR5</f>
         <v>44417</v>
       </c>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="128"/>
-      <c r="AY4" s="126">
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="121">
         <f>AY5</f>
         <v>44424</v>
       </c>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="127"/>
-      <c r="BB4" s="127"/>
-      <c r="BC4" s="127"/>
-      <c r="BD4" s="127"/>
-      <c r="BE4" s="128"/>
-      <c r="BF4" s="126">
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="121">
         <f>BF5</f>
         <v>44431</v>
       </c>
-      <c r="BG4" s="127"/>
-      <c r="BH4" s="127"/>
-      <c r="BI4" s="127"/>
-      <c r="BJ4" s="127"/>
-      <c r="BK4" s="127"/>
-      <c r="BL4" s="128"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="123"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
       <c r="I5" s="78">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44382</v>
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="14"/>
@@ -2932,10 +2932,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3015,10 +3015,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -3096,10 +3096,10 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42"/>
       <c r="B11" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -3177,10 +3177,10 @@
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -3258,10 +3258,10 @@
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -3336,10 +3336,10 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
@@ -3414,10 +3414,10 @@
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="15">
         <v>0.1</v>
@@ -3497,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="17"/>
@@ -3568,10 +3568,10 @@
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="18">
         <v>0</v>
@@ -3649,10 +3649,10 @@
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="18">
         <v>0</v>
@@ -3730,10 +3730,10 @@
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42"/>
       <c r="B19" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="18">
         <v>0</v>
@@ -3811,10 +3811,10 @@
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
@@ -3892,10 +3892,10 @@
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="18">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="20"/>
@@ -4043,10 +4043,10 @@
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
@@ -4124,10 +4124,10 @@
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="21">
         <v>0</v>
@@ -4205,10 +4205,10 @@
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="21">
         <v>0</v>
@@ -4286,10 +4286,10 @@
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
       <c r="B26" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="21">
         <v>0</v>
@@ -4367,10 +4367,10 @@
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42"/>
       <c r="B27" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="21">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -4523,10 +4523,10 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -4604,10 +4604,10 @@
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
       <c r="B30" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="23"/>
@@ -4755,10 +4755,10 @@
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
       <c r="B32" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="24">
         <v>0</v>
@@ -4836,10 +4836,10 @@
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -4917,10 +4917,10 @@
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
       <c r="B34" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="24">
         <v>0</v>
@@ -4998,10 +4998,10 @@
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="24">
         <v>0</v>
@@ -5076,7 +5076,7 @@
     <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="B36" s="81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="83"/>
@@ -5144,10 +5144,10 @@
     <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="87">
         <v>0</v>
@@ -5222,10 +5222,10 @@
     <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
       <c r="B38" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="87">
         <v>0</v>
@@ -5300,10 +5300,10 @@
     <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="87">
         <v>0</v>
@@ -5378,10 +5378,10 @@
     <row r="40" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42"/>
       <c r="B40" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="87">
         <v>0</v>
@@ -5455,10 +5455,10 @@
     <row r="41" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42"/>
       <c r="B41" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="87">
         <v>0</v>
@@ -5533,10 +5533,10 @@
     <row r="42" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42"/>
       <c r="B42" s="90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="87">
         <v>0</v>
@@ -5611,10 +5611,10 @@
     <row r="43" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="42"/>
       <c r="B43" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="87">
         <v>0</v>
@@ -5689,7 +5689,7 @@
     <row r="44" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="92"/>
       <c r="D44" s="93"/>
@@ -5757,10 +5757,10 @@
     <row r="45" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="42"/>
       <c r="B45" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="98">
         <v>0</v>
@@ -5835,10 +5835,10 @@
     <row r="46" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="42"/>
       <c r="B46" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" s="98">
         <v>0</v>
@@ -5913,10 +5913,10 @@
     <row r="47" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
       <c r="B47" s="96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="98">
         <v>0</v>
@@ -5991,10 +5991,10 @@
     <row r="48" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="42"/>
       <c r="B48" s="96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="98">
         <v>0</v>
@@ -6069,10 +6069,10 @@
     <row r="49" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42"/>
       <c r="B49" s="96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="98">
         <v>0</v>
@@ -6147,10 +6147,10 @@
     <row r="50" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="42"/>
       <c r="B50" s="96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="98">
         <v>0</v>
@@ -6225,7 +6225,7 @@
     <row r="51" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="42"/>
       <c r="B51" s="101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="102"/>
       <c r="D51" s="103"/>
@@ -6293,10 +6293,10 @@
     <row r="52" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
       <c r="B52" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="108">
         <v>0</v>
@@ -6369,10 +6369,10 @@
     <row r="53" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="42"/>
       <c r="B53" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="108">
         <v>0</v>
@@ -6445,10 +6445,10 @@
     <row r="54" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="42"/>
       <c r="B54" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="108">
         <v>0</v>
@@ -6521,10 +6521,10 @@
     <row r="55" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="42"/>
       <c r="B55" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="108">
         <v>0</v>
@@ -6597,10 +6597,10 @@
     <row r="56" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="42"/>
       <c r="B56" s="106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="108">
         <v>0</v>
@@ -6673,7 +6673,7 @@
     <row r="57" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="42"/>
       <c r="B57" s="111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
@@ -6741,10 +6741,10 @@
     <row r="58" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42"/>
       <c r="B58" s="120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D58" s="117">
         <v>0</v>
@@ -6818,10 +6818,10 @@
     <row r="59" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
       <c r="B59" s="120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="117">
         <v>0</v>
@@ -7047,6 +7047,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
@@ -7055,11 +7060,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D35 D60:D61">
     <cfRule type="dataBar" priority="16">
